--- a/Code/Results/Cases/Case_0_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_128/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006775752066657148</v>
+        <v>0.01066386480764514</v>
       </c>
       <c r="D2">
-        <v>0.02557652633811003</v>
+        <v>0.04191488182279812</v>
       </c>
       <c r="E2">
-        <v>1.449409033642198</v>
+        <v>0.4111038076194404</v>
       </c>
       <c r="F2">
-        <v>2.175368295965001</v>
+        <v>1.532045218073179</v>
       </c>
       <c r="G2">
-        <v>0.0007652727604855891</v>
+        <v>0.002451759371712802</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.65876039772759</v>
+        <v>1.175047952375223</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.542266656220363</v>
+        <v>1.942888141309311</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007515866720235742</v>
+        <v>0.01077484301384679</v>
       </c>
       <c r="D3">
-        <v>0.02617477276177027</v>
+        <v>0.04255721576186389</v>
       </c>
       <c r="E3">
-        <v>1.232193586852375</v>
+        <v>0.3582844269763967</v>
       </c>
       <c r="F3">
-        <v>1.919006542458646</v>
+        <v>1.485308932098945</v>
       </c>
       <c r="G3">
-        <v>0.000776057834774782</v>
+        <v>0.002457872350537738</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.464180359534666</v>
+        <v>1.13991178790657</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.765754743589582</v>
+        <v>1.740295478582425</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007981280811829805</v>
+        <v>0.01084515869750113</v>
       </c>
       <c r="D4">
-        <v>0.02674402599515346</v>
+        <v>0.04298746569473622</v>
       </c>
       <c r="E4">
-        <v>1.103374534145601</v>
+        <v>0.3260051226716314</v>
       </c>
       <c r="F4">
-        <v>1.769355368721548</v>
+        <v>1.457932004874507</v>
       </c>
       <c r="G4">
-        <v>0.0007827862811586026</v>
+        <v>0.002461813168438446</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.350722034386607</v>
+        <v>1.119356790374894</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.297866968427115</v>
+        <v>1.616615238086467</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.008173381860647311</v>
+        <v>0.01087436326625379</v>
       </c>
       <c r="D5">
-        <v>0.02702068943960612</v>
+        <v>0.04317168355319012</v>
       </c>
       <c r="E5">
-        <v>1.051825977584301</v>
+        <v>0.3128858927219653</v>
       </c>
       <c r="F5">
-        <v>1.710069890113516</v>
+        <v>1.447102684710856</v>
       </c>
       <c r="G5">
-        <v>0.0007855588879020446</v>
+        <v>0.002463466405241862</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.305804096961012</v>
+        <v>1.111232921607638</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.109046232753144</v>
+        <v>1.56639005467332</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008205419567126171</v>
+        <v>0.01087924601510259</v>
       </c>
       <c r="D6">
-        <v>0.02706916605563592</v>
+        <v>0.04320280584328628</v>
       </c>
       <c r="E6">
-        <v>1.043318242525132</v>
+        <v>0.3107094616744348</v>
       </c>
       <c r="F6">
-        <v>1.700321373837753</v>
+        <v>1.445324095898926</v>
       </c>
       <c r="G6">
-        <v>0.0007860212389913851</v>
+        <v>0.002463743787549118</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.298419796383882</v>
+        <v>1.109899099304855</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.077793787945666</v>
+        <v>1.558060698696806</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007983862038708267</v>
+        <v>0.01084555032691448</v>
       </c>
       <c r="D7">
-        <v>0.02674758366973151</v>
+        <v>0.04298991430433574</v>
       </c>
       <c r="E7">
-        <v>1.102675743363065</v>
+        <v>0.3258280554744459</v>
       </c>
       <c r="F7">
-        <v>1.768549257530196</v>
+        <v>1.45778463912022</v>
       </c>
       <c r="G7">
-        <v>0.0007828235442648435</v>
+        <v>0.00246183527270055</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.35011116298999</v>
+        <v>1.119246211720935</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.295313465904769</v>
+        <v>1.615937177735134</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.007028446774580033</v>
+        <v>0.01070168072198285</v>
       </c>
       <c r="D8">
-        <v>0.02573694589079167</v>
+        <v>0.04212883945146473</v>
       </c>
       <c r="E8">
-        <v>1.373439744169062</v>
+        <v>0.3928580752183137</v>
       </c>
       <c r="F8">
-        <v>2.085203542314062</v>
+        <v>1.515653825109212</v>
       </c>
       <c r="G8">
-        <v>0.0007689719215127648</v>
+        <v>0.002453828343391752</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.590295652145755</v>
+        <v>1.16271930529588</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.272429348176615</v>
+        <v>1.87288402261737</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.005261450066182505</v>
+        <v>0.01043667230329959</v>
       </c>
       <c r="D9">
-        <v>0.02568668868297408</v>
+        <v>0.04073055761361388</v>
       </c>
       <c r="E9">
-        <v>1.951280550267199</v>
+        <v>0.5256697616410264</v>
       </c>
       <c r="F9">
-        <v>2.780973952096986</v>
+        <v>1.639826365754715</v>
       </c>
       <c r="G9">
-        <v>0.00074244345994114</v>
+        <v>0.002439605078357626</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.119314990461362</v>
+        <v>1.256226908164152</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.279750723629888</v>
+        <v>2.382605797238398</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.004066111557986751</v>
+        <v>0.01025225542309549</v>
       </c>
       <c r="D10">
-        <v>0.02739968630959666</v>
+        <v>0.03988824544280689</v>
       </c>
       <c r="E10">
-        <v>2.423120243662126</v>
+        <v>0.6243119278589973</v>
       </c>
       <c r="F10">
-        <v>3.360088281121875</v>
+        <v>1.737894194054519</v>
       </c>
       <c r="G10">
-        <v>0.000722986556141204</v>
+        <v>0.002430044025509625</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.560681582675599</v>
+        <v>1.330210189419418</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.844970417894615</v>
+        <v>2.760984054436847</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.003557633373773683</v>
+        <v>0.0101705723699812</v>
       </c>
       <c r="D11">
-        <v>0.0287318032243391</v>
+        <v>0.03954699608346246</v>
       </c>
       <c r="E11">
-        <v>2.653708133563256</v>
+        <v>0.6694700684629566</v>
       </c>
       <c r="F11">
-        <v>3.644738785994349</v>
+        <v>1.78406339497883</v>
       </c>
       <c r="G11">
-        <v>0.0007140400758738274</v>
+        <v>0.002425884767610336</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.777919963523075</v>
+        <v>1.365069355474674</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.586739223232314</v>
+        <v>2.93403624197822</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.003371746724285529</v>
+        <v>0.01013995829786118</v>
       </c>
       <c r="D12">
-        <v>0.02933510310487719</v>
+        <v>0.03942395186782477</v>
       </c>
       <c r="E12">
-        <v>2.743954449926591</v>
+        <v>0.6866154689563757</v>
       </c>
       <c r="F12">
-        <v>3.75627270795718</v>
+        <v>1.801776105178732</v>
       </c>
       <c r="G12">
-        <v>0.0007106275020167368</v>
+        <v>0.002424336895469725</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.863089019685674</v>
+        <v>1.378447119129078</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.872987715992906</v>
+        <v>2.999705235214151</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.003411453191180414</v>
+        <v>0.01014653745977689</v>
       </c>
       <c r="D13">
-        <v>0.02920040971599036</v>
+        <v>0.03945017437046161</v>
       </c>
       <c r="E13">
-        <v>2.724376062827673</v>
+        <v>0.6829208350818874</v>
       </c>
       <c r="F13">
-        <v>3.732072578414176</v>
+        <v>1.797951064288469</v>
       </c>
       <c r="G13">
-        <v>0.0007113637656067651</v>
+        <v>0.002424669053087628</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.844607130883077</v>
+        <v>1.375558022163958</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.811080751484155</v>
+        <v>2.985556032750083</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.003542195788922342</v>
+        <v>0.01016804736663701</v>
       </c>
       <c r="D14">
-        <v>0.02877932619657741</v>
+        <v>0.03953674844006372</v>
       </c>
       <c r="E14">
-        <v>2.661069813144948</v>
+        <v>0.6708797061344285</v>
       </c>
       <c r="F14">
-        <v>3.653835172373618</v>
+        <v>1.785516000584664</v>
       </c>
       <c r="G14">
-        <v>0.0007137598898196984</v>
+        <v>0.002425756880541845</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.784865092777565</v>
+        <v>1.366166373142434</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.61017459725258</v>
+        <v>2.939436078383665</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.00362320343835254</v>
+        <v>0.01018126416374265</v>
       </c>
       <c r="D15">
-        <v>0.02853493753882219</v>
+        <v>0.03959058684223038</v>
       </c>
       <c r="E15">
-        <v>2.62269598320816</v>
+        <v>0.6635101455163834</v>
       </c>
       <c r="F15">
-        <v>3.606423315928197</v>
+        <v>1.777929207362945</v>
       </c>
       <c r="G15">
-        <v>0.0007152239915093406</v>
+        <v>0.002426426735871796</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.748667937708646</v>
+        <v>1.360436940839094</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.487847779454</v>
+        <v>2.911204374967554</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004100176047243664</v>
+        <v>0.01025763802904578</v>
       </c>
       <c r="D16">
-        <v>0.02732529571280295</v>
+        <v>0.03991140333578613</v>
       </c>
       <c r="E16">
-        <v>2.408422128568276</v>
+        <v>0.6213668154149872</v>
       </c>
       <c r="F16">
-        <v>3.341968148177301</v>
+        <v>1.73490873598044</v>
       </c>
       <c r="G16">
-        <v>0.0007235684257665416</v>
+        <v>0.002430319652225899</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.546859006833387</v>
+        <v>1.327956646274814</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.797179317066764</v>
+        <v>2.749693720392486</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.004402796706536094</v>
+        <v>0.01030505642983925</v>
       </c>
       <c r="D17">
-        <v>0.02673708079443671</v>
+        <v>0.04011905791393744</v>
       </c>
       <c r="E17">
-        <v>2.281457299560159</v>
+        <v>0.5955891180913966</v>
       </c>
       <c r="F17">
-        <v>3.185610765404704</v>
+        <v>1.708919873294292</v>
       </c>
       <c r="G17">
-        <v>0.0007286559627786751</v>
+        <v>0.002432756388180953</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.427617252712821</v>
+        <v>1.308342363422412</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.381788101230313</v>
+        <v>2.650852642116718</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.004580057205149757</v>
+        <v>0.01033253813941215</v>
       </c>
       <c r="D18">
-        <v>0.02644938482172421</v>
+        <v>0.04024243210076861</v>
       </c>
       <c r="E18">
-        <v>2.209885073994144</v>
+        <v>0.5807890821198498</v>
       </c>
       <c r="F18">
-        <v>3.097624864374382</v>
+        <v>1.694118050176911</v>
       </c>
       <c r="G18">
-        <v>0.0007315739849361735</v>
+        <v>0.00243417583953988</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.360543196389102</v>
+        <v>1.29717379634171</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.145588437725849</v>
+        <v>2.594088735147807</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.004640584030424222</v>
+        <v>0.01034187869577252</v>
       </c>
       <c r="D19">
-        <v>0.02636016073002523</v>
+        <v>0.04028487606253606</v>
       </c>
       <c r="E19">
-        <v>2.185885065368282</v>
+        <v>0.5757824958761972</v>
       </c>
       <c r="F19">
-        <v>3.068150079533666</v>
+        <v>1.689131366809931</v>
       </c>
       <c r="G19">
-        <v>0.0007325608648920969</v>
+        <v>0.002434659522976144</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.338078055883244</v>
+        <v>1.293411599344225</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.066053845600436</v>
+        <v>2.574884230277632</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.004370241039321598</v>
+        <v>0.01029998714572322</v>
       </c>
       <c r="D20">
-        <v>0.0267943329396978</v>
+        <v>0.04009654420317332</v>
       </c>
       <c r="E20">
-        <v>2.294818309410871</v>
+        <v>0.5983304151264406</v>
       </c>
       <c r="F20">
-        <v>3.202049276159471</v>
+        <v>1.711671253127349</v>
       </c>
       <c r="G20">
-        <v>0.0007281153055403393</v>
+        <v>0.002432495141511198</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.44015088170319</v>
+        <v>1.310418606530661</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.425718406762087</v>
+        <v>2.661365419615265</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.003503597317411788</v>
+        <v>0.01016172076572275</v>
       </c>
       <c r="D21">
-        <v>0.02890014526315099</v>
+        <v>0.03951115060932864</v>
       </c>
       <c r="E21">
-        <v>2.679579001999798</v>
+        <v>0.6744152244726536</v>
       </c>
       <c r="F21">
-        <v>3.676707462959314</v>
+        <v>1.789162209588966</v>
       </c>
       <c r="G21">
-        <v>0.0007130568624689687</v>
+        <v>0.002425436623924888</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.8023289828472</v>
+        <v>1.368920080604241</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.669030336383514</v>
+        <v>2.952978846152689</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.002977206064722182</v>
+        <v>0.01007320687083002</v>
       </c>
       <c r="D22">
-        <v>0.03086578412285235</v>
+        <v>0.03916465304562422</v>
       </c>
       <c r="E22">
-        <v>2.948541893206823</v>
+        <v>0.724405201366352</v>
       </c>
       <c r="F22">
-        <v>4.009193147299385</v>
+        <v>1.841146942945642</v>
       </c>
       <c r="G22">
-        <v>0.0007030638859768512</v>
+        <v>0.002420981628559044</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.056321263214087</v>
+        <v>1.408189947884679</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.51353378500949</v>
+        <v>3.144371112397891</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.003253812056385641</v>
+        <v>0.0101202789009065</v>
       </c>
       <c r="D23">
-        <v>0.02975489318917823</v>
+        <v>0.0393462323557543</v>
       </c>
       <c r="E23">
-        <v>2.803131123673566</v>
+        <v>0.6976991067164278</v>
       </c>
       <c r="F23">
-        <v>3.82942654253884</v>
+        <v>1.813277289213005</v>
       </c>
       <c r="G23">
-        <v>0.0007084155668381196</v>
+        <v>0.002423344934950232</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.918964986213751</v>
+        <v>1.387134687034774</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.05945669471407</v>
+        <v>3.042146093847748</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.004384949352294498</v>
+        <v>0.01030227828238317</v>
       </c>
       <c r="D24">
-        <v>0.02676829340880005</v>
+        <v>0.04010671023369028</v>
       </c>
       <c r="E24">
-        <v>2.288773414497754</v>
+        <v>0.5970910130341167</v>
       </c>
       <c r="F24">
-        <v>3.194611538605443</v>
+        <v>1.710426920141515</v>
       </c>
       <c r="G24">
-        <v>0.0007283597573221057</v>
+        <v>0.002432613193194075</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.434479858264922</v>
+        <v>1.309479601116209</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.405849450708729</v>
+        <v>2.656612402807127</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.005724833655003536</v>
+        <v>0.01050654929635719</v>
       </c>
       <c r="D25">
-        <v>0.02544165589883107</v>
+        <v>0.04107693047810201</v>
       </c>
       <c r="E25">
-        <v>1.788245426006242</v>
+        <v>0.4895706724523876</v>
       </c>
       <c r="F25">
-        <v>2.582679303054817</v>
+        <v>1.605056942695484</v>
       </c>
       <c r="G25">
-        <v>0.000749584767718507</v>
+        <v>0.002443295870331384</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.968390811510702</v>
+        <v>1.230021053029915</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.723738843154024</v>
+        <v>2.244053925553487</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_128/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01066386480764514</v>
+        <v>0.006775752066425333</v>
       </c>
       <c r="D2">
-        <v>0.04191488182279812</v>
+        <v>0.02557652633798568</v>
       </c>
       <c r="E2">
-        <v>0.4111038076194404</v>
+        <v>1.449409033642155</v>
       </c>
       <c r="F2">
-        <v>1.532045218073179</v>
+        <v>2.175368295965001</v>
       </c>
       <c r="G2">
-        <v>0.002451759371712802</v>
+        <v>0.000765272760539185</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.175047952375223</v>
+        <v>1.658760397727605</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.942888141309311</v>
+        <v>5.542266656220306</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01077484301384679</v>
+        <v>0.007515866719987052</v>
       </c>
       <c r="D3">
-        <v>0.04255721576186389</v>
+        <v>0.02617477276193725</v>
       </c>
       <c r="E3">
-        <v>0.3582844269763967</v>
+        <v>1.232193586852432</v>
       </c>
       <c r="F3">
-        <v>1.485308932098945</v>
+        <v>1.919006542458661</v>
       </c>
       <c r="G3">
-        <v>0.002457872350537738</v>
+        <v>0.0007760578347696005</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.13991178790657</v>
+        <v>1.46418035953468</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.740295478582425</v>
+        <v>4.765754743589639</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01084515869750113</v>
+        <v>0.007981280811419467</v>
       </c>
       <c r="D4">
-        <v>0.04298746569473622</v>
+        <v>0.0267440259950753</v>
       </c>
       <c r="E4">
-        <v>0.3260051226716314</v>
+        <v>1.103374534145559</v>
       </c>
       <c r="F4">
-        <v>1.457932004874507</v>
+        <v>1.769355368721548</v>
       </c>
       <c r="G4">
-        <v>0.002461813168438446</v>
+        <v>0.0007827862810836904</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.119356790374894</v>
+        <v>1.350722034386607</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.616615238086467</v>
+        <v>4.297866968427115</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01087436326625379</v>
+        <v>0.008173381861067419</v>
       </c>
       <c r="D5">
-        <v>0.04317168355319012</v>
+        <v>0.02702068943940006</v>
       </c>
       <c r="E5">
-        <v>0.3128858927219653</v>
+        <v>1.051825977584272</v>
       </c>
       <c r="F5">
-        <v>1.447102684710856</v>
+        <v>1.710069890113516</v>
       </c>
       <c r="G5">
-        <v>0.002463466405241862</v>
+        <v>0.0007855588879506294</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.111232921607638</v>
+        <v>1.305804096961012</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.56639005467332</v>
+        <v>4.109046232752917</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01087924601510259</v>
+        <v>0.008205419567154593</v>
       </c>
       <c r="D6">
-        <v>0.04320280584328628</v>
+        <v>0.02706916605564658</v>
       </c>
       <c r="E6">
-        <v>0.3107094616744348</v>
+        <v>1.043318242525118</v>
       </c>
       <c r="F6">
-        <v>1.445324095898926</v>
+        <v>1.700321373837753</v>
       </c>
       <c r="G6">
-        <v>0.002463743787549118</v>
+        <v>0.0007860212390470987</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.109899099304855</v>
+        <v>1.298419796383897</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.558060698696806</v>
+        <v>4.077793787945552</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01084555032691448</v>
+        <v>0.007983862038256184</v>
       </c>
       <c r="D7">
-        <v>0.04298991430433574</v>
+        <v>0.02674758366974217</v>
       </c>
       <c r="E7">
-        <v>0.3258280554744459</v>
+        <v>1.102675743363008</v>
       </c>
       <c r="F7">
-        <v>1.45778463912022</v>
+        <v>1.768549257530168</v>
       </c>
       <c r="G7">
-        <v>0.00246183527270055</v>
+        <v>0.0007828235442665074</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.119246211720935</v>
+        <v>1.350111162989961</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.615937177735134</v>
+        <v>4.295313465904655</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01070168072198285</v>
+        <v>0.007028446774803854</v>
       </c>
       <c r="D8">
-        <v>0.04212883945146473</v>
+        <v>0.02573694589067088</v>
       </c>
       <c r="E8">
-        <v>0.3928580752183137</v>
+        <v>1.373439744169033</v>
       </c>
       <c r="F8">
-        <v>1.515653825109212</v>
+        <v>2.085203542314034</v>
       </c>
       <c r="G8">
-        <v>0.002453828343391752</v>
+        <v>0.000768971921511178</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.16271930529588</v>
+        <v>1.590295652145741</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.87288402261737</v>
+        <v>5.272429348176559</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01043667230329959</v>
+        <v>0.005261450065930262</v>
       </c>
       <c r="D9">
-        <v>0.04073055761361388</v>
+        <v>0.02568668868284618</v>
       </c>
       <c r="E9">
-        <v>0.5256697616410264</v>
+        <v>1.951280550267242</v>
       </c>
       <c r="F9">
-        <v>1.639826365754715</v>
+        <v>2.780973952097014</v>
       </c>
       <c r="G9">
-        <v>0.002439605078357626</v>
+        <v>0.0007424434599391705</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.256226908164152</v>
+        <v>2.119314990461376</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.382605797238398</v>
+        <v>7.279750723629945</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01025225542309549</v>
+        <v>0.00406611155820702</v>
       </c>
       <c r="D10">
-        <v>0.03988824544280689</v>
+        <v>0.02739968630960021</v>
       </c>
       <c r="E10">
-        <v>0.6243119278589973</v>
+        <v>2.423120243662083</v>
       </c>
       <c r="F10">
-        <v>1.737894194054519</v>
+        <v>3.360088281121875</v>
       </c>
       <c r="G10">
-        <v>0.002430044025509625</v>
+        <v>0.00072298655609688</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.330210189419418</v>
+        <v>2.560681582675599</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.760984054436847</v>
+        <v>8.844970417894558</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0101705723699812</v>
+        <v>0.003557633373808322</v>
       </c>
       <c r="D11">
-        <v>0.03954699608346246</v>
+        <v>0.02873180322438174</v>
       </c>
       <c r="E11">
-        <v>0.6694700684629566</v>
+        <v>2.653708133563185</v>
       </c>
       <c r="F11">
-        <v>1.78406339497883</v>
+        <v>3.644738785994321</v>
       </c>
       <c r="G11">
-        <v>0.002425884767610336</v>
+        <v>0.0007140400758149103</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.365069355474674</v>
+        <v>2.777919963523019</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.93403624197822</v>
+        <v>9.5867392232322</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01013995829786118</v>
+        <v>0.003371746724988078</v>
       </c>
       <c r="D12">
-        <v>0.03942395186782477</v>
+        <v>0.0293351031046214</v>
       </c>
       <c r="E12">
-        <v>0.6866154689563757</v>
+        <v>2.743954449926576</v>
       </c>
       <c r="F12">
-        <v>1.801776105178732</v>
+        <v>3.75627270795718</v>
       </c>
       <c r="G12">
-        <v>0.002424336895469725</v>
+        <v>0.0007106275020158055</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.378447119129078</v>
+        <v>2.86308901968566</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.999705235214151</v>
+        <v>9.872987715992849</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01014653745977689</v>
+        <v>0.003411453191193736</v>
       </c>
       <c r="D13">
-        <v>0.03945017437046161</v>
+        <v>0.02920040971628879</v>
       </c>
       <c r="E13">
-        <v>0.6829208350818874</v>
+        <v>2.724376062827631</v>
       </c>
       <c r="F13">
-        <v>1.797951064288469</v>
+        <v>3.732072578414176</v>
       </c>
       <c r="G13">
-        <v>0.002424669053087628</v>
+        <v>0.0007113637655561894</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.375558022163958</v>
+        <v>2.844607130883062</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.985556032750083</v>
+        <v>9.811080751483928</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01016804736663701</v>
+        <v>0.003542195788932112</v>
       </c>
       <c r="D14">
-        <v>0.03953674844006372</v>
+        <v>0.02877932619680479</v>
       </c>
       <c r="E14">
-        <v>0.6708797061344285</v>
+        <v>2.661069813144948</v>
       </c>
       <c r="F14">
-        <v>1.785516000584664</v>
+        <v>3.653835172373618</v>
       </c>
       <c r="G14">
-        <v>0.002425756880541845</v>
+        <v>0.0007137598897125735</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.366166373142434</v>
+        <v>2.784865092777551</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.939436078383665</v>
+        <v>9.61017459725241</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01018126416374265</v>
+        <v>0.003623203438288591</v>
       </c>
       <c r="D15">
-        <v>0.03959058684223038</v>
+        <v>0.0285349375387085</v>
       </c>
       <c r="E15">
-        <v>0.6635101455163834</v>
+        <v>2.622695983208189</v>
       </c>
       <c r="F15">
-        <v>1.777929207362945</v>
+        <v>3.606423315928197</v>
       </c>
       <c r="G15">
-        <v>0.002426426735871796</v>
+        <v>0.0007152239915051421</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.360436940839094</v>
+        <v>2.748667937708674</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.911204374967554</v>
+        <v>9.487847779454</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01025763802904578</v>
+        <v>0.004100176047456827</v>
       </c>
       <c r="D16">
-        <v>0.03991140333578613</v>
+        <v>0.02732529571278874</v>
       </c>
       <c r="E16">
-        <v>0.6213668154149872</v>
+        <v>2.408422128568318</v>
       </c>
       <c r="F16">
-        <v>1.73490873598044</v>
+        <v>3.341968148177273</v>
       </c>
       <c r="G16">
-        <v>0.002430319652225899</v>
+        <v>0.0007235684258847416</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.327956646274814</v>
+        <v>2.546859006833401</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.749693720392486</v>
+        <v>8.79717931706665</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01030505642983925</v>
+        <v>0.004402796706534318</v>
       </c>
       <c r="D17">
-        <v>0.04011905791393744</v>
+        <v>0.0267370807944296</v>
       </c>
       <c r="E17">
-        <v>0.5955891180913966</v>
+        <v>2.281457299560174</v>
       </c>
       <c r="F17">
-        <v>1.708919873294292</v>
+        <v>3.185610765404675</v>
       </c>
       <c r="G17">
-        <v>0.002432756388180953</v>
+        <v>0.000728655962842947</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.308342363422412</v>
+        <v>2.427617252712807</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.650852642116718</v>
+        <v>8.381788101230256</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01033253813941215</v>
+        <v>0.004580057204921495</v>
       </c>
       <c r="D18">
-        <v>0.04024243210076861</v>
+        <v>0.02644938482157499</v>
       </c>
       <c r="E18">
-        <v>0.5807890821198498</v>
+        <v>2.209885073994158</v>
       </c>
       <c r="F18">
-        <v>1.694118050176911</v>
+        <v>3.097624864374382</v>
       </c>
       <c r="G18">
-        <v>0.00243417583953988</v>
+        <v>0.0007315739849975689</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.29717379634171</v>
+        <v>2.360543196389088</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.594088735147807</v>
+        <v>8.145588437725792</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01034187869577252</v>
+        <v>0.004640584030878969</v>
       </c>
       <c r="D19">
-        <v>0.04028487606253606</v>
+        <v>0.02636016072991154</v>
       </c>
       <c r="E19">
-        <v>0.5757824958761972</v>
+        <v>2.185885065368311</v>
       </c>
       <c r="F19">
-        <v>1.689131366809931</v>
+        <v>3.068150079533609</v>
       </c>
       <c r="G19">
-        <v>0.002434659522976144</v>
+        <v>0.0007325608648952894</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.293411599344225</v>
+        <v>2.338078055883216</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.574884230277632</v>
+        <v>8.066053845600436</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01029998714572322</v>
+        <v>0.004370241038831324</v>
       </c>
       <c r="D20">
-        <v>0.04009654420317332</v>
+        <v>0.02679433293966582</v>
       </c>
       <c r="E20">
-        <v>0.5983304151264406</v>
+        <v>2.294818309410843</v>
       </c>
       <c r="F20">
-        <v>1.711671253127349</v>
+        <v>3.202049276159528</v>
       </c>
       <c r="G20">
-        <v>0.002432495141511198</v>
+        <v>0.000728115305600352</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.310418606530661</v>
+        <v>2.440150881703218</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.661365419615265</v>
+        <v>8.425718406762201</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01016172076572275</v>
+        <v>0.00350359731712313</v>
       </c>
       <c r="D21">
-        <v>0.03951115060932864</v>
+        <v>0.0289001452627744</v>
       </c>
       <c r="E21">
-        <v>0.6744152244726536</v>
+        <v>2.679579001999841</v>
       </c>
       <c r="F21">
-        <v>1.789162209588966</v>
+        <v>3.676707462959399</v>
       </c>
       <c r="G21">
-        <v>0.002425436623924888</v>
+        <v>0.0007130568624642321</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.368920080604241</v>
+        <v>2.802328982847243</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.952978846152689</v>
+        <v>9.669030336383685</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01007320687083002</v>
+        <v>0.002977206064975313</v>
       </c>
       <c r="D22">
-        <v>0.03916465304562422</v>
+        <v>0.03086578412280971</v>
       </c>
       <c r="E22">
-        <v>0.724405201366352</v>
+        <v>2.948541893206851</v>
       </c>
       <c r="F22">
-        <v>1.841146942945642</v>
+        <v>4.009193147299385</v>
       </c>
       <c r="G22">
-        <v>0.002420981628559044</v>
+        <v>0.0007030638859556525</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.408189947884679</v>
+        <v>3.05632126321413</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.144371112397891</v>
+        <v>10.51353378500966</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0101202789009065</v>
+        <v>0.003253812056662753</v>
       </c>
       <c r="D23">
-        <v>0.0393462323557543</v>
+        <v>0.02975489318883007</v>
       </c>
       <c r="E23">
-        <v>0.6976991067164278</v>
+        <v>2.803131123673523</v>
       </c>
       <c r="F23">
-        <v>1.813277289213005</v>
+        <v>3.829426542538869</v>
       </c>
       <c r="G23">
-        <v>0.002423344934950232</v>
+        <v>0.0007084155668248534</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.387134687034774</v>
+        <v>2.91896498621378</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.042146093847748</v>
+        <v>10.05945669471396</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01030227828238317</v>
+        <v>0.004384949352995271</v>
       </c>
       <c r="D24">
-        <v>0.04010671023369028</v>
+        <v>0.0267682934086757</v>
       </c>
       <c r="E24">
-        <v>0.5970910130341167</v>
+        <v>2.288773414497797</v>
       </c>
       <c r="F24">
-        <v>1.710426920141515</v>
+        <v>3.194611538605415</v>
       </c>
       <c r="G24">
-        <v>0.002432613193194075</v>
+        <v>0.0007283597572686979</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.309479601116209</v>
+        <v>2.434479858264908</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.656612402807127</v>
+        <v>8.405849450708729</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01050654929635719</v>
+        <v>0.005724833655208705</v>
       </c>
       <c r="D25">
-        <v>0.04107693047810201</v>
+        <v>0.02544165589902292</v>
       </c>
       <c r="E25">
-        <v>0.4895706724523876</v>
+        <v>1.788245426006227</v>
       </c>
       <c r="F25">
-        <v>1.605056942695484</v>
+        <v>2.582679303054846</v>
       </c>
       <c r="G25">
-        <v>0.002443295870331384</v>
+        <v>0.0007495847677703171</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.230021053029915</v>
+        <v>1.968390811510716</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.244053925553487</v>
+        <v>6.723738843154194</v>
       </c>
       <c r="L25">
         <v>0</v>
